--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CAB45A-0274-48BF-BE40-308735E4F97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22080" windowHeight="12180"/>
+    <workbookView xWindow="5628" yWindow="1080" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>##var</t>
   </si>
@@ -210,19 +203,37 @@
   </si>
   <si>
     <t>Box</t>
+  </si>
+  <si>
+    <t>ESkillIndicatorType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommonAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetOnly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,151 +242,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,192 +266,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -592,255 +294,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -848,67 +308,26 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1166,32 +585,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:K30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.8333333333333" customWidth="1"/>
-    <col min="4" max="4" width="14.1666666666667" customWidth="1"/>
-    <col min="5" max="5" width="9.33333333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="10.75" customWidth="1"/>
-    <col min="9" max="9" width="12.1666666666667" customWidth="1"/>
-    <col min="10" max="10" width="15.1666666666667" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1210,15 +629,15 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1243,14 +662,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="99" customHeight="1" spans="1:11">
+    <row r="3" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1272,7 +691,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -1289,7 +708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="7:9">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>20</v>
       </c>
@@ -1297,7 +716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="7:9">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
         <v>21</v>
       </c>
@@ -1305,7 +724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="7:9">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
         <v>22</v>
       </c>
@@ -1313,7 +732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="7:9">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
         <v>23</v>
       </c>
@@ -1321,7 +740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="2:9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -1341,7 +760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="7:9">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
         <v>22</v>
       </c>
@@ -1352,7 +771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="7:9">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
         <v>28</v>
       </c>
@@ -1363,7 +782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="7:9">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
         <v>30</v>
       </c>
@@ -1374,7 +793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="7:9">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
         <v>32</v>
       </c>
@@ -1385,7 +804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="7:9">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
         <v>34</v>
       </c>
@@ -1396,7 +815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="7:9">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
         <v>36</v>
       </c>
@@ -1407,7 +826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="7:9">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>38</v>
       </c>
@@ -1418,7 +837,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="7:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>40</v>
       </c>
@@ -1429,7 +848,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="7:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
         <v>42</v>
       </c>
@@ -1440,7 +859,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="7:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
         <v>44</v>
       </c>
@@ -1451,7 +870,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="7:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
         <v>46</v>
       </c>
@@ -1462,7 +881,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="7:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G21" t="s">
         <v>48</v>
       </c>
@@ -1473,7 +892,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="7:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
         <v>50</v>
       </c>
@@ -1484,7 +903,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>52</v>
       </c>
@@ -1501,7 +920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="7:9">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
         <v>54</v>
       </c>
@@ -1509,7 +928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="7:9">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G26" t="s">
         <v>55</v>
       </c>
@@ -1517,7 +936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="7:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G27" t="s">
         <v>56</v>
       </c>
@@ -1525,7 +944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="7:9">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
         <v>57</v>
       </c>
@@ -1533,7 +952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" customFormat="1" spans="2:9">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>58</v>
       </c>
@@ -1550,20 +969,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="7:9">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
         <v>60</v>
       </c>
       <c r="I30">
         <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G33" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CAB45A-0274-48BF-BE40-308735E4F97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223E9A9D-8516-413D-9E38-D358D2220D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5628" yWindow="1080" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>##var</t>
   </si>
@@ -206,10 +206,6 @@
   </si>
   <si>
     <t>ESkillIndicatorType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CommonAttack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -310,11 +306,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -629,13 +625,13 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -978,7 +974,7 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C31" t="b">
@@ -987,7 +983,7 @@
       <c r="D31" t="b">
         <v>1</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="3" t="s">
         <v>62</v>
       </c>
       <c r="I31">
@@ -995,7 +991,7 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="3" t="s">
         <v>63</v>
       </c>
       <c r="I32">
@@ -1003,7 +999,7 @@
       </c>
     </row>
     <row r="33" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="3" t="s">
         <v>64</v>
       </c>
       <c r="I33">
@@ -1011,19 +1007,11 @@
       </c>
     </row>
     <row r="34" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="3" t="s">
         <v>65</v>
       </c>
       <c r="I34">
         <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G35" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I35">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223E9A9D-8516-413D-9E38-D358D2220D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F2ACFD-83D0-44E7-A903-B7AC8DB6C456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t>##var</t>
   </si>
@@ -209,19 +209,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Position</t>
+    <t>TargetOnly</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Line</t>
+    <t>Circle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Angle</t>
+    <t>Umbrella</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TargetOnly</t>
+    <t>单一目标指示器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆形指示器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扇形指示器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围指示器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单线指示器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -601,7 +625,7 @@
     <col min="5" max="5" width="9.33203125" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
     <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
     <col min="9" max="9" width="12.109375" customWidth="1"/>
     <col min="10" max="10" width="15.109375" customWidth="1"/>
   </cols>
@@ -986,6 +1010,9 @@
       <c r="G31" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="H31" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="I31">
         <v>1</v>
       </c>
@@ -994,6 +1021,9 @@
       <c r="G32" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="H32" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="I32">
         <v>2</v>
       </c>
@@ -1002,17 +1032,46 @@
       <c r="G33" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="H33" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="I33">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G34" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="I34">
         <v>4</v>
       </c>
+    </row>
+    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G35" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G40" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F2ACFD-83D0-44E7-A903-B7AC8DB6C456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208B733A-4CEF-4C70-96F8-3CA0CDEBD355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4296" yWindow="948" windowWidth="17280" windowHeight="11724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
   <si>
     <t>##var</t>
   </si>
@@ -246,6 +246,22 @@
   </si>
   <si>
     <t>单线指示器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EInputType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invaild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeyDown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeyUp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,7 +630,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1028,7 +1044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G33" s="3" t="s">
         <v>64</v>
       </c>
@@ -1039,7 +1055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G34" s="3" t="s">
         <v>68</v>
       </c>
@@ -1050,7 +1066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G35" s="3" t="s">
         <v>70</v>
       </c>
@@ -1061,16 +1077,45 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G40" s="3"/>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208B733A-4CEF-4C70-96F8-3CA0CDEBD355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06993A80-F5D5-4F0E-BED0-4F5C904FC557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4296" yWindow="948" windowWidth="17280" windowHeight="11724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="3000" windowWidth="22155" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
   <si>
     <t>##var</t>
   </si>
@@ -181,87 +181,104 @@
     <t>ESkillAbstractType</t>
   </si>
   <si>
+    <t>ActiveSkill</t>
+  </si>
+  <si>
+    <t>PassiveSkill</t>
+  </si>
+  <si>
+    <t>WeaponSkill</t>
+  </si>
+  <si>
+    <t>MountSkill</t>
+  </si>
+  <si>
+    <t>EColliderType</t>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>ESkillIndicatorType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetOnly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Umbrella</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单一目标指示器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆形指示器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扇形指示器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围指示器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单线指示器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EInputType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invaild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeyDown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeyUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EEffectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>NormalAttack</t>
-  </si>
-  <si>
-    <t>ActiveSkill</t>
-  </si>
-  <si>
-    <t>PassiveSkill</t>
-  </si>
-  <si>
-    <t>WeaponSkill</t>
-  </si>
-  <si>
-    <t>MountSkill</t>
-  </si>
-  <si>
-    <t>EColliderType</t>
-  </si>
-  <si>
-    <t>Circle</t>
-  </si>
-  <si>
-    <t>Box</t>
-  </si>
-  <si>
-    <t>ESkillIndicatorType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TargetOnly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Circle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Umbrella</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单一目标指示器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圆形指示器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扇形指示器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>范围指示器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SingleLine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单线指示器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EInputType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invaild</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KeyDown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KeyUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FollowUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BindUnit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,26 +644,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="9.375" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="18.625" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
+    <col min="10" max="10" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,7 +690,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -698,7 +715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -727,7 +744,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -744,7 +761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G5" t="s">
         <v>20</v>
       </c>
@@ -752,7 +769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G6" t="s">
         <v>21</v>
       </c>
@@ -760,7 +777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G7" t="s">
         <v>22</v>
       </c>
@@ -768,7 +785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G8" t="s">
         <v>23</v>
       </c>
@@ -776,7 +793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -796,7 +813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G10" t="s">
         <v>22</v>
       </c>
@@ -807,7 +824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G11" t="s">
         <v>28</v>
       </c>
@@ -818,7 +835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G12" t="s">
         <v>30</v>
       </c>
@@ -829,7 +846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G13" t="s">
         <v>32</v>
       </c>
@@ -840,7 +857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G14" t="s">
         <v>34</v>
       </c>
@@ -851,7 +868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G15" t="s">
         <v>36</v>
       </c>
@@ -862,7 +879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G16" t="s">
         <v>38</v>
       </c>
@@ -873,7 +890,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G17" t="s">
         <v>40</v>
       </c>
@@ -884,7 +901,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G18" t="s">
         <v>42</v>
       </c>
@@ -895,7 +912,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G19" t="s">
         <v>44</v>
       </c>
@@ -906,7 +923,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G20" t="s">
         <v>46</v>
       </c>
@@ -917,7 +934,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G21" t="s">
         <v>48</v>
       </c>
@@ -928,7 +945,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G22" t="s">
         <v>50</v>
       </c>
@@ -939,7 +956,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>52</v>
       </c>
@@ -949,48 +966,48 @@
       <c r="D24" t="b">
         <v>1</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
         <v>53</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G25" t="s">
-        <v>54</v>
       </c>
       <c r="I25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I28">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -999,23 +1016,23 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
         <v>59</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G30" t="s">
-        <v>60</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
@@ -1024,62 +1041,62 @@
         <v>1</v>
       </c>
       <c r="G31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G32" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="I32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G33" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="I34">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="I35">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -1088,35 +1105,64 @@
         <v>1</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G37" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G38" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I38">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G40" s="3"/>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G41" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06993A80-F5D5-4F0E-BED0-4F5C904FC557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F6C10B-DCA4-4518-97B8-CB12D133C7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="3000" windowWidth="22155" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
   <si>
     <t>##var</t>
   </si>
@@ -279,6 +279,14 @@
   </si>
   <si>
     <t>BindUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polygon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,26 +652,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.75" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="18.625" customWidth="1"/>
-    <col min="9" max="9" width="12.125" customWidth="1"/>
-    <col min="10" max="10" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,7 +698,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -715,7 +723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -744,7 +752,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -761,7 +769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>20</v>
       </c>
@@ -769,7 +777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G6" t="s">
         <v>21</v>
       </c>
@@ -777,7 +785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
         <v>22</v>
       </c>
@@ -785,7 +793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
         <v>23</v>
       </c>
@@ -793,374 +801,392 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="b">
+      <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
         <v>25</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
         <v>26</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G10" t="s">
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
         <v>22</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>27</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G11" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
         <v>28</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" t="s">
         <v>29</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G12" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
         <v>30</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H13" t="s">
         <v>31</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G13" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
         <v>32</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" t="s">
         <v>33</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G14" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
         <v>34</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H15" t="s">
         <v>35</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G15" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
         <v>36</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H16" t="s">
         <v>37</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G16" t="s">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
         <v>38</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H17" t="s">
         <v>39</v>
       </c>
-      <c r="I16">
+      <c r="I17">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G17" t="s">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
         <v>40</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H18" t="s">
         <v>41</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G18" t="s">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
         <v>42</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H19" t="s">
         <v>43</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G19" t="s">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
         <v>44</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H20" t="s">
         <v>45</v>
       </c>
-      <c r="I19">
+      <c r="I20">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G20" t="s">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H21" t="s">
         <v>47</v>
       </c>
-      <c r="I20">
+      <c r="I21">
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G21" t="s">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
         <v>48</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H22" t="s">
         <v>49</v>
       </c>
-      <c r="I21">
+      <c r="I22">
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G22" t="s">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
         <v>50</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H23" t="s">
         <v>51</v>
       </c>
-      <c r="I22">
+      <c r="I23">
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>52</v>
       </c>
-      <c r="C24" t="b">
+      <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G25" t="s">
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
         <v>53</v>
       </c>
-      <c r="I25">
+      <c r="I26">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G26" t="s">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
         <v>54</v>
       </c>
-      <c r="I26">
+      <c r="I27">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G27" t="s">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
         <v>55</v>
       </c>
-      <c r="I27">
+      <c r="I28">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G28" t="s">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
         <v>56</v>
       </c>
-      <c r="I28">
+      <c r="I29">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C29" t="b">
+      <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D29" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
         <v>58</v>
       </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G30" t="s">
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
         <v>59</v>
       </c>
-      <c r="I30">
+      <c r="I31">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="3" t="s">
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C31" t="b">
+      <c r="C33" t="b">
         <v>0</v>
       </c>
-      <c r="D31" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3" t="s">
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G32" s="3" t="s">
+      <c r="I33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G34" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I32">
+      <c r="I34">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G33" s="3" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G35" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I33">
+      <c r="I35">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G34" s="3" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G36" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I34">
+      <c r="I36">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G35" s="3" t="s">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I35">
+      <c r="I37">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="3" t="s">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C36" t="b">
+      <c r="C38" t="b">
         <v>0</v>
       </c>
-      <c r="D36" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3" t="s">
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H36" s="3"/>
-      <c r="I36">
+      <c r="H38" s="3"/>
+      <c r="I38">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G37" s="3" t="s">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G39" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="H37" s="3"/>
-      <c r="I37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G38" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" t="b">
-        <v>0</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G40" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G40" s="3" t="s">
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G42" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="H40" s="3"/>
-      <c r="I40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G41" s="3" t="s">
+      <c r="H42" s="3"/>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G43" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I41">
+      <c r="I43">
         <v>2</v>
       </c>
     </row>
